--- a/bazadanych.xlsx
+++ b/bazadanych.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pati\Desktop\STUDIA AIR\III rok\V semestr\SWD\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA5AA94-6AAF-42E3-BEA0-819B399BFC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B6805-C7C8-4956-B45F-21C9646D1A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA1EC408-E2F4-4B7F-8AD6-D01B26975E52}"/>
+    <workbookView xWindow="-28920" yWindow="-13710" windowWidth="29040" windowHeight="17640" xr2:uid="{CA1EC408-E2F4-4B7F-8AD6-D01B26975E52}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -373,9 +373,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,105 +385,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -493,56 +412,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -857,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD29241-A8B3-46AD-89AC-257C35CB1ACB}">
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,3554 +750,6131 @@
     <col min="22" max="22" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
       <c r="W1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <f>W2*1000</f>
         <v>30000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>112</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>43</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>1.2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>115000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>500</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>190</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2">
         <v>30</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2019</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <f>W3*1000</f>
         <v>40000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>74</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>51</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>6.4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>95000</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>392</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>186</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3">
         <v>40</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>2017</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>40000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>91</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>50</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>5.5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>80000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>477</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>187</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4">
         <v>20</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2017</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D4:D51" si="0">W5*1000</f>
+      <c r="D5">
+        <f t="shared" ref="D5:D10" si="0">W5*1000</f>
         <v>50000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>162</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>55</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>200000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>450</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>196</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5">
         <v>50</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2020</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>25000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>110</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>50</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>1.2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>60000</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>273</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>200</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6">
         <v>10</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>2023</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>10000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>150</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>43</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>5.7</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>159000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>460</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>216</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7">
         <v>60</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>2020</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>75</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>40</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>4.7</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>80000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>335</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>191</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8">
         <v>15</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>2016</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>246</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>72</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>11.8</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>115000</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>258</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>235</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9">
         <v>35</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>2022</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>157</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>45</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>5.2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>195000</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>466</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>170</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10">
         <v>25</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>2018</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>33000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>74</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>50</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>45000</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>326</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>188</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11">
         <v>18</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2022</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>20000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>110</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>48</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>8</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>135000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>509</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>188</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12">
         <v>45</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2018</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>35000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>85</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>53</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>55000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>380</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>190</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13">
         <v>12</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2020</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>5000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>118</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>67</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>8</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>125000</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>601</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
         <v>197</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14">
         <v>38</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>2021</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>40000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>55</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>44</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>11.3</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>70000</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>250</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
         <v>171</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15">
         <v>28</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2021</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>12000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>70</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>35</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>50000</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>185</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <v>135</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16">
         <v>55</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>2022</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>27000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>254</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>82</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>300000</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>430</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17">
         <v>250</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17">
         <v>14</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>2021</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>40000</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>81</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>52</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>5.5</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>63000</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>422</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18">
         <v>199</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18">
         <v>32</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>2019</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>23000</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>132</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>53</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>6.3</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>52000</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>556</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19">
         <v>223</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19">
         <v>22</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>2020</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>20000</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>81</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>46</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <v>6</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>50000</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>300</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20">
         <v>196</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20">
         <v>48</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>2019</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>15000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>103</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>37</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>7.4</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>71000</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>265</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21">
         <v>210</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21">
         <v>11</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>2018</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>5000</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>382</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22">
         <v>64</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <v>12.8</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>270000</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>125</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22">
         <v>312</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22">
         <v>8</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>2023</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>15000</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>449</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>80</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23">
         <v>10.7</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>905000</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>100</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23">
         <v>260</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23">
         <v>5</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>2021</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>20000</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>81</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24">
         <v>40</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24">
         <v>5.5</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>62000</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>355</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24">
         <v>195</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24">
         <v>7</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>2023</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>8000</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>74</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>44</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <v>5.6</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>120000</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>360</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25">
         <v>184</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25">
         <v>3</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>2022</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>28000</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>375</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26">
         <v>72</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26">
         <v>0.9</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <v>320000</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>725</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26">
         <v>242</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26">
         <v>15</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>2023</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>18000</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>184</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>60</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <v>7.5</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>109000</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>413</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27">
         <v>180</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W27">
         <v>12</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X27">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>2018</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>20000</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>467</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28">
         <v>90</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28">
         <v>11.1</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28">
         <v>359000</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>358</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28">
         <v>333</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W28">
         <v>8</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X28">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>2020</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>12000</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>147</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
         <v>58</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29">
         <v>6.4</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>140000</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>480</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29">
         <v>235</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29">
         <v>20</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>2019</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>10000</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>48</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30">
         <v>42</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30">
         <v>3.6</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>43000</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>391</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30">
         <v>178</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W30">
         <v>30</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X30">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>2007</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>12000</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>157</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>68</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31">
         <v>10.199999999999999</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>23000</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>205</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31">
         <v>226</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W31">
         <v>10</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X31">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>2018</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>29000</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>96</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>50</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32">
         <v>11.1</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>56000</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>445</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32">
         <v>191</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32">
         <v>12</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>2023</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>35000</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>158</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>48</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33">
         <v>5.9</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>127000</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>536</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33">
         <v>204</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W33">
         <v>8</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X33">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>2014</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>50000</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>88</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>58</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34">
         <v>4.7</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>40000</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>380</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34">
         <v>194</v>
       </c>
-      <c r="W34" s="1">
+      <c r="W34">
         <v>18</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X34">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>2021</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>34000</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>59</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>40</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35">
         <v>5.5</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>60000</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>380</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="W35" s="1">
+      <c r="J35">
+        <v>220</v>
+      </c>
+      <c r="W35">
         <v>28</v>
       </c>
-      <c r="X35" s="1">
+      <c r="X35">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>2007</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>15000</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>221</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36">
         <v>50</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36">
         <v>13.1</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>99000</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>290</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36">
         <v>218</v>
       </c>
-      <c r="W36" s="1">
+      <c r="W36">
         <v>15</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X36">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>2020</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>10000</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>60</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>35</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37">
         <v>6.1</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
         <v>58000</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>185</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37">
         <v>130</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W37">
         <v>38</v>
       </c>
-      <c r="X37" s="1">
+      <c r="X37">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>2023</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>33000</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>114</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>40</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <v>5.7</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>125000</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>255</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38">
         <v>155</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38">
         <v>10</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X38">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>2009</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>47000</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>419</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39">
         <v>55</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>13.7</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>480000</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>150</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39">
         <v>325</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W39">
         <v>25</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X39">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>2017</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>22000</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>255</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40">
         <v>56</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40">
         <v>6.2</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>65000</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>430</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40">
         <v>235</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W40">
         <v>22</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X40">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>2018</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>52000</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>160</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <v>50</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <v>4.7</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
         <v>170000</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>454</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41">
         <v>180</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W41">
         <v>48</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>2013</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>14000</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>235</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42">
         <v>80</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42">
         <v>11.3</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>80000</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>340</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42">
         <v>240</v>
       </c>
-      <c r="W42" s="1">
+      <c r="W42">
         <v>35</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X42">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>2021</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>27000</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>100</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43">
         <v>40</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43">
         <v>5.9</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
         <v>85000</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>211</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43">
         <v>210</v>
       </c>
-      <c r="W43" s="1">
+      <c r="W43">
         <v>18</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X43">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>2019</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>44000</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>105</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44">
         <v>50</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44">
         <v>6.1</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>250000</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>380</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44">
         <v>200</v>
       </c>
-      <c r="W44" s="1">
+      <c r="W44">
         <v>28</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X44">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>2014</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>31000</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>294</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45">
         <v>55</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>13000</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>305</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45">
         <v>250</v>
       </c>
-      <c r="W45" s="1">
+      <c r="W45">
         <v>15</v>
       </c>
-      <c r="X45" s="1">
+      <c r="X45">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>2023</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>4000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>280</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46">
         <v>83</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46">
         <v>9.9</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
         <v>215000</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>650</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46">
         <v>250</v>
       </c>
-      <c r="W46" s="1">
+      <c r="W46">
         <v>32</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>2019</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>13000</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>66</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47">
         <v>41</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47">
         <v>5.6</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
         <v>67000</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>300</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47">
         <v>175</v>
       </c>
-      <c r="W47" s="1">
+      <c r="W47">
         <v>22</v>
       </c>
-      <c r="X47" s="1">
+      <c r="X47">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>2022</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>39000</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>96</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48">
         <v>53</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48">
         <v>6.1</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
         <v>175000</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>580</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48">
         <v>195</v>
       </c>
-      <c r="W48" s="1">
+      <c r="W48">
         <v>48</v>
       </c>
-      <c r="X48" s="1">
+      <c r="X48">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>2015</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>60000</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>115</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49">
         <v>75</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49">
         <v>6.5</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
         <v>140000</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>750</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49">
         <v>130</v>
       </c>
-      <c r="W49" s="1">
+      <c r="W49">
         <v>55</v>
       </c>
-      <c r="X49" s="1">
+      <c r="X49">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>2019</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>48000</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>120</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50">
         <v>70</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50">
         <v>6.2</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
         <v>275000</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>1030</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50">
         <v>195</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W50">
         <v>12</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X50">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>2021</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>30000</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>103</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51">
         <v>50</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51">
         <v>6.2</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <v>121000</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>503</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51">
         <v>205</v>
       </c>
-      <c r="W51" s="1">
+      <c r="W51">
         <v>28</v>
       </c>
-      <c r="X51" s="1">
+      <c r="X51">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>2022</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>4000</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>90</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>43</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
         <v>40000</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>361</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>2023</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>2000</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>246</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53">
         <v>51</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53">
         <v>14.2</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>70000</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>820</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54">
         <v>2021</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54">
         <v>20000</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54">
         <v>94</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54">
         <v>50</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54">
         <v>5.4</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54">
         <v>39000</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54">
         <v>319</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54">
         <v>170</v>
       </c>
-      <c r="W54" s="1">
+      <c r="W54">
         <v>20</v>
       </c>
-      <c r="X54" s="1">
+      <c r="X54">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="7">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>2021</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>10000</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>455</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55">
         <v>60</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55">
         <v>2.1</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <v>250000</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>500</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55">
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>2019</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>40000</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>160</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56">
         <v>50</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56">
         <v>1.6</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <v>80000</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>402</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>2019</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>50000</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>250</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57">
         <v>50</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57">
         <v>7.4</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <f t="shared" ref="H57" si="1">X57*1000</f>
         <v>0</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>421</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57">
         <v>250</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>2020</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>45000</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>85</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>50</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
         <v>85000</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>405</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58">
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="7">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>2011</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>60000</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>51</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59">
         <v>46</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59">
         <v>5.9</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <v>20000</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>502</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59">
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>2016</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>55000</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>118</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>80</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>6.3</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <v>80000</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>1150</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="7">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>2021</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>25000</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>85</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61">
         <v>50</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61">
         <v>5.5</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
         <v>65000</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>411</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="7">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>2017</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>44000</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>85</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62">
         <v>50</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62">
         <v>6.2</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
         <v>78000</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>385</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>2020</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>27000</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>74</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63">
         <v>45</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63">
         <v>5.7</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <v>55000</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>325</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63">
         <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64">
         <v>2023</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64">
         <v>10000</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64">
         <v>423</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64">
         <v>63</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64">
         <v>11.9</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64">
         <v>285000</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64">
         <v>613</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64">
         <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65">
         <v>2021</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65">
         <v>27000</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65">
         <v>121</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65">
         <v>56</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65">
         <v>6.8</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65">
         <v>120000</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65">
         <v>506</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65">
         <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66">
         <v>2020</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66">
         <v>30000</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66">
         <v>63</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66">
         <v>35</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66">
         <v>4.8</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66">
         <v>55000</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66">
         <v>225</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66">
         <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67">
         <v>2018</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67">
         <v>8000</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67">
         <v>175</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67">
         <v>60</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67">
         <v>7.7</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67">
         <v>120000</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67">
         <v>580</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67">
         <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68">
         <v>2017</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68">
         <v>45000</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68">
         <v>191</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68">
         <v>62</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68">
         <v>8.6</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68">
         <v>60000</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68">
         <v>490</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68">
         <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69">
         <v>2023</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69">
         <v>38000</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69">
         <v>96</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69">
         <v>44</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69">
         <v>4.3</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69">
         <v>106000</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69">
         <v>405</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J69">
         <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70">
         <v>2021</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70">
         <v>55000</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70">
         <v>110</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70">
         <v>69</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70">
         <v>7.4</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70">
         <v>85000</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70">
         <v>1100</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70">
         <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71">
         <v>2018</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71">
         <v>47000</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71">
         <v>102</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71">
         <v>40</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71">
         <v>6.8</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71">
         <v>64000</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71">
         <v>85</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71">
         <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72">
         <v>2021</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72">
         <v>23000</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72">
         <v>368</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72">
         <v>54</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72">
         <v>13.2</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72">
         <v>179000</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72">
         <v>125</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72">
         <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73">
         <v>2017</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73">
         <v>50000</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73">
         <v>478</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73">
         <v>75</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73">
         <v>12.7</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73">
         <v>700000</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73">
         <v>574</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73">
         <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74">
         <v>2020</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74">
         <v>27000</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74">
         <v>110</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74">
         <v>40</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74">
         <v>1.3</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74">
         <v>84000</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74">
         <v>270</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74">
         <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="14">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75">
         <v>2021</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75">
         <v>15000</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75">
         <v>110</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75">
         <v>55</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75">
         <v>8.5</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75">
         <v>72000</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75">
         <v>438</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J75">
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="14">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76">
         <v>2019</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76">
         <v>38000</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76">
         <v>294</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76">
         <v>88</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76">
         <v>11</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76">
         <v>200000</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76">
         <v>297</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J76">
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="14">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77">
         <v>2022</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77">
         <v>16000</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77">
         <v>120</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77">
         <v>54</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77">
         <v>7.3</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77">
         <v>175000</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77">
         <v>452</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J77">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="14">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>65</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78">
         <v>2020</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78">
         <v>30000</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78">
         <v>147</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78">
         <v>64</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78">
         <v>7</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78">
         <v>163000</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78">
         <v>525</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78">
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="14">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79">
         <v>2019</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79">
         <v>45000</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79">
         <v>103</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79">
         <v>50</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79">
         <v>6.1</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79">
         <v>115000</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79">
         <v>513</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J79">
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="14">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80">
         <v>2010</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80">
         <v>9000</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80">
         <v>224</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80">
         <v>70</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80">
         <v>12.8</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80">
         <v>57000</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80">
         <v>238</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J80">
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="14">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81">
         <v>2022</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81">
         <v>33000</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81">
         <v>81</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81">
         <v>50</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81">
         <v>5.7</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81">
         <v>78000</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81">
         <v>708</v>
       </c>
-      <c r="J81" s="12">
+      <c r="J81">
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="14">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82">
         <v>2019</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82">
         <v>32000</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82">
         <v>110</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82">
         <v>75</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82">
         <v>8.6</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82">
         <v>148000</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82">
         <v>2000</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J82">
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="14">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83">
         <v>2011</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83">
         <v>45000</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83">
         <v>95</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83">
         <v>47</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83">
         <v>4.3</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83">
         <v>30000</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83">
         <v>390</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J83">
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="14">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84">
         <v>2021</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84">
         <v>60000</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84">
         <v>110</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84">
         <v>58</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84">
         <v>7.4</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84">
         <v>130000</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84">
         <v>835</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J84">
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="14">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85">
         <v>2008</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85">
         <v>40000</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85">
         <v>206</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85">
         <v>70</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85">
         <v>11.2</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85">
         <v>87000</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85">
         <v>371</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J85">
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="14">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86">
         <v>2016</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86">
         <v>21000</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86">
         <v>80</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86">
         <v>35</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86">
         <v>4.5</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86">
         <v>41000</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86">
         <v>261</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J86">
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="14">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87">
         <v>2012</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87">
         <v>25000</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87">
         <v>360</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87">
         <v>78</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87">
         <v>15.7</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87">
         <v>675000</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87">
         <v>180</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J87">
         <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="14">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88">
         <v>2023</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88">
         <v>5000</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88">
         <v>67</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88">
         <v>35</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88">
         <v>4.8</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88">
         <v>65000</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88">
         <v>255</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J88">
         <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="14">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89">
         <v>2021</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89">
         <v>29000</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89">
         <v>110</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89">
         <v>54</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89">
         <v>7</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89">
         <v>112000</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89">
         <v>591</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J89">
         <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="14">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90">
         <v>2020</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90">
         <v>42000</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90">
         <v>180</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90">
         <v>50</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G90">
         <v>7.2</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90">
         <v>140000</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90">
         <v>640</v>
       </c>
-      <c r="J90" s="12">
+      <c r="J90">
         <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="14">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91">
         <v>2021</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91">
         <v>15000</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91">
         <v>90</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91">
         <v>57</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91">
         <v>6.3</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91">
         <v>110000</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91">
         <v>1200</v>
       </c>
-      <c r="J91" s="12">
+      <c r="J91">
         <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="14">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92">
         <v>2020</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92">
         <v>33000</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92">
         <v>61</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F92">
         <v>32</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G92">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92">
         <v>59000</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92">
         <v>267</v>
       </c>
-      <c r="J92" s="12">
+      <c r="J92">
         <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="14">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93">
         <v>2020</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93">
         <v>14000</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93">
         <v>96</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93">
         <v>44</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93">
         <v>4.5</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93">
         <v>99000</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93">
         <v>505</v>
       </c>
-      <c r="J93" s="12">
+      <c r="J93">
         <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="14">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94">
         <v>2019</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94">
         <v>42000</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94">
         <v>74</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F94">
         <v>41</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94">
         <v>6.4</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94">
         <v>115000</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94">
         <v>309</v>
       </c>
-      <c r="J94" s="12">
+      <c r="J94">
         <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="14">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95">
         <v>2021</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95">
         <v>19000</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95">
         <v>90</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95">
         <v>47</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95">
         <v>6.4</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95">
         <v>93000</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95">
         <v>474</v>
       </c>
-      <c r="J95" s="12">
+      <c r="J95">
         <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="14">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96">
         <v>2019</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96">
         <v>35000</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96">
         <v>95</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F96">
         <v>47</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G96">
         <v>5.3</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96">
         <v>75000</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96">
         <v>505</v>
       </c>
-      <c r="J96" s="12">
+      <c r="J96">
         <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="14">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97">
         <v>2021</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97">
         <v>40000</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97">
         <v>195</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97">
         <v>65</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97">
         <v>10.7</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97">
         <v>208000</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97">
         <v>458</v>
       </c>
-      <c r="J97" s="12">
+      <c r="J97">
         <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="14">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98">
         <v>2016</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98">
         <v>6000</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98">
         <v>343</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98">
         <v>70</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98">
         <v>12.3</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98">
         <v>320000</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98">
         <v>287</v>
       </c>
-      <c r="J98" s="12">
+      <c r="J98">
         <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="14">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99">
         <v>2020</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99">
         <v>44000</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99">
         <v>200</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99">
         <v>81</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99">
         <v>9</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99">
         <v>320000</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I99">
         <v>533</v>
       </c>
-      <c r="J99" s="12">
+      <c r="J99">
         <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="14">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100">
         <v>2019</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100">
         <v>19000</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100">
         <v>81</v>
       </c>
-      <c r="F100" s="13">
+      <c r="F100">
         <v>50</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G100">
         <v>6.7</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100">
         <v>136000</v>
       </c>
-      <c r="I100" s="7">
+      <c r="I100">
         <v>510</v>
       </c>
-      <c r="J100" s="16">
+      <c r="J100">
         <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="14">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101">
         <v>2022</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101">
         <v>10000</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101">
         <v>70</v>
       </c>
-      <c r="F101" s="13">
+      <c r="F101">
         <v>40</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G101">
         <v>4.7</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H101">
         <v>115000</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I101">
         <v>440</v>
       </c>
-      <c r="J101" s="16">
+      <c r="J101">
         <v>183</v>
       </c>
     </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>2022</v>
+      </c>
+      <c r="D102">
+        <v>21000</v>
+      </c>
+      <c r="E102">
+        <v>204</v>
+      </c>
+      <c r="F102">
+        <v>76</v>
+      </c>
+      <c r="G102">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H102">
+        <v>110000</v>
+      </c>
+      <c r="I102">
+        <v>750</v>
+      </c>
+      <c r="J102">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>2023</v>
+      </c>
+      <c r="D103">
+        <v>10000</v>
+      </c>
+      <c r="E103">
+        <v>213</v>
+      </c>
+      <c r="F103">
+        <v>56</v>
+      </c>
+      <c r="G103">
+        <v>11</v>
+      </c>
+      <c r="H103">
+        <v>179000</v>
+      </c>
+      <c r="I103">
+        <v>574</v>
+      </c>
+      <c r="J103">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>2021</v>
+      </c>
+      <c r="D104">
+        <v>25000</v>
+      </c>
+      <c r="E104">
+        <v>110</v>
+      </c>
+      <c r="F104">
+        <v>51</v>
+      </c>
+      <c r="G104">
+        <v>6.3</v>
+      </c>
+      <c r="H104">
+        <v>55000</v>
+      </c>
+      <c r="I104">
+        <v>454</v>
+      </c>
+      <c r="J104">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>2018</v>
+      </c>
+      <c r="D105">
+        <v>12000</v>
+      </c>
+      <c r="E105">
+        <v>103</v>
+      </c>
+      <c r="F105">
+        <v>51</v>
+      </c>
+      <c r="G105" s="1">
+        <v>8</v>
+      </c>
+      <c r="H105">
+        <v>109000</v>
+      </c>
+      <c r="I105">
+        <v>430</v>
+      </c>
+      <c r="J105">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>2020</v>
+      </c>
+      <c r="D106">
+        <v>33000</v>
+      </c>
+      <c r="E106">
+        <v>360</v>
+      </c>
+      <c r="F106">
+        <v>75</v>
+      </c>
+      <c r="G106" s="1">
+        <v>9</v>
+      </c>
+      <c r="H106">
+        <v>63000</v>
+      </c>
+      <c r="I106">
+        <v>440</v>
+      </c>
+      <c r="J106">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>2021</v>
+      </c>
+      <c r="D107">
+        <v>60000</v>
+      </c>
+      <c r="E107">
+        <v>120</v>
+      </c>
+      <c r="F107">
+        <v>55</v>
+      </c>
+      <c r="G107" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="H107">
+        <v>65000</v>
+      </c>
+      <c r="I107">
+        <v>267</v>
+      </c>
+      <c r="J107">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>2008</v>
+      </c>
+      <c r="D108">
+        <v>29000</v>
+      </c>
+      <c r="E108">
+        <v>150</v>
+      </c>
+      <c r="F108">
+        <v>50</v>
+      </c>
+      <c r="G108" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H108">
+        <v>60000</v>
+      </c>
+      <c r="I108">
+        <v>261</v>
+      </c>
+      <c r="J108">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>2013</v>
+      </c>
+      <c r="D109">
+        <v>34000</v>
+      </c>
+      <c r="E109">
+        <v>81</v>
+      </c>
+      <c r="F109">
+        <v>50</v>
+      </c>
+      <c r="G109" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="H109">
+        <v>41000</v>
+      </c>
+      <c r="I109">
+        <v>490</v>
+      </c>
+      <c r="J109">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>2015</v>
+      </c>
+      <c r="D110">
+        <v>50000</v>
+      </c>
+      <c r="E110">
+        <v>49</v>
+      </c>
+      <c r="F110">
+        <v>35</v>
+      </c>
+      <c r="G110" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="H110">
+        <v>43000</v>
+      </c>
+      <c r="I110">
+        <v>1200</v>
+      </c>
+      <c r="J110">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>2018</v>
+      </c>
+      <c r="D111">
+        <v>20000</v>
+      </c>
+      <c r="E111">
+        <v>478</v>
+      </c>
+      <c r="F111">
+        <v>75</v>
+      </c>
+      <c r="G111" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H111">
+        <v>135000</v>
+      </c>
+      <c r="I111">
+        <v>358</v>
+      </c>
+      <c r="J111">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>2021</v>
+      </c>
+      <c r="D112">
+        <v>40000</v>
+      </c>
+      <c r="E112">
+        <v>110</v>
+      </c>
+      <c r="F112">
+        <v>55</v>
+      </c>
+      <c r="G112" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="H112">
+        <v>71000</v>
+      </c>
+      <c r="I112">
+        <v>460</v>
+      </c>
+      <c r="J112">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>2020</v>
+      </c>
+      <c r="D113">
+        <v>20000</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113">
+        <v>55</v>
+      </c>
+      <c r="G113" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H113">
+        <v>40000</v>
+      </c>
+      <c r="I113">
+        <v>270</v>
+      </c>
+      <c r="J113">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>2020</v>
+      </c>
+      <c r="D114">
+        <v>40000</v>
+      </c>
+      <c r="E114">
+        <v>75</v>
+      </c>
+      <c r="F114">
+        <v>45</v>
+      </c>
+      <c r="G114" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="H114">
+        <v>20000</v>
+      </c>
+      <c r="I114">
+        <v>477</v>
+      </c>
+      <c r="J114">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>2019</v>
+      </c>
+      <c r="D115">
+        <v>40000</v>
+      </c>
+      <c r="E115">
+        <v>121</v>
+      </c>
+      <c r="F115">
+        <v>57</v>
+      </c>
+      <c r="G115" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="H115">
+        <v>320000</v>
+      </c>
+      <c r="I115">
+        <v>385</v>
+      </c>
+      <c r="J115">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>2022</v>
+      </c>
+      <c r="D116">
+        <v>30000</v>
+      </c>
+      <c r="E116">
+        <v>110</v>
+      </c>
+      <c r="F116">
+        <v>67</v>
+      </c>
+      <c r="G116" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="H116">
+        <v>60000</v>
+      </c>
+      <c r="I116">
+        <v>392</v>
+      </c>
+      <c r="J116">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>2023</v>
+      </c>
+      <c r="D117">
+        <v>60000</v>
+      </c>
+      <c r="E117">
+        <v>95</v>
+      </c>
+      <c r="F117">
+        <v>55</v>
+      </c>
+      <c r="G117" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H117">
+        <v>57000</v>
+      </c>
+      <c r="I117">
+        <v>650</v>
+      </c>
+      <c r="J117">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>2018</v>
+      </c>
+      <c r="D118">
+        <v>20000</v>
+      </c>
+      <c r="E118">
+        <v>368</v>
+      </c>
+      <c r="F118">
+        <v>70</v>
+      </c>
+      <c r="G118" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="H118">
+        <v>62000</v>
+      </c>
+      <c r="I118">
+        <v>2000</v>
+      </c>
+      <c r="J118">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>2022</v>
+      </c>
+      <c r="D119">
+        <v>45000</v>
+      </c>
+      <c r="E119">
+        <v>110</v>
+      </c>
+      <c r="F119">
+        <v>50</v>
+      </c>
+      <c r="G119" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="H119">
+        <v>320000</v>
+      </c>
+      <c r="I119">
+        <v>185</v>
+      </c>
+      <c r="J119">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>2021</v>
+      </c>
+      <c r="D120">
+        <v>12000</v>
+      </c>
+      <c r="E120">
+        <v>157</v>
+      </c>
+      <c r="F120">
+        <v>54</v>
+      </c>
+      <c r="G120">
+        <v>13.2</v>
+      </c>
+      <c r="H120">
+        <v>175000</v>
+      </c>
+      <c r="I120">
+        <v>601</v>
+      </c>
+      <c r="J120">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>2023</v>
+      </c>
+      <c r="D121">
+        <v>35000</v>
+      </c>
+      <c r="E121">
+        <v>81</v>
+      </c>
+      <c r="F121">
+        <v>50</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H121">
+        <v>121000</v>
+      </c>
+      <c r="I121">
+        <v>1150</v>
+      </c>
+      <c r="J121">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>2021</v>
+      </c>
+      <c r="D122">
+        <v>32000</v>
+      </c>
+      <c r="E122">
+        <v>55</v>
+      </c>
+      <c r="F122">
+        <v>45</v>
+      </c>
+      <c r="G122" s="1">
+        <v>7</v>
+      </c>
+      <c r="H122">
+        <v>270000</v>
+      </c>
+      <c r="I122">
+        <v>255</v>
+      </c>
+      <c r="J122">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>2021</v>
+      </c>
+      <c r="D123">
+        <v>42000</v>
+      </c>
+      <c r="E123">
+        <v>51</v>
+      </c>
+      <c r="F123">
+        <v>45</v>
+      </c>
+      <c r="G123" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="H123">
+        <v>85000</v>
+      </c>
+      <c r="I123">
+        <v>725</v>
+      </c>
+      <c r="J123">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>2018</v>
+      </c>
+      <c r="D124">
+        <v>30000</v>
+      </c>
+      <c r="E124">
+        <v>191</v>
+      </c>
+      <c r="F124">
+        <v>69</v>
+      </c>
+      <c r="G124" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="H124">
+        <v>115000</v>
+      </c>
+      <c r="I124">
+        <v>380</v>
+      </c>
+      <c r="J124">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>2012</v>
+      </c>
+      <c r="D125">
+        <v>35000</v>
+      </c>
+      <c r="E125">
+        <v>250</v>
+      </c>
+      <c r="F125">
+        <v>65</v>
+      </c>
+      <c r="G125" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="H125">
+        <v>95000</v>
+      </c>
+      <c r="I125">
+        <v>238</v>
+      </c>
+      <c r="J125">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>2020</v>
+      </c>
+      <c r="D126">
+        <v>38000</v>
+      </c>
+      <c r="E126">
+        <v>254</v>
+      </c>
+      <c r="F126">
+        <v>65</v>
+      </c>
+      <c r="G126" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="H126">
+        <v>140000</v>
+      </c>
+      <c r="I126">
+        <v>580</v>
+      </c>
+      <c r="J126">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>2019</v>
+      </c>
+      <c r="D127">
+        <v>27000</v>
+      </c>
+      <c r="E127">
+        <v>80</v>
+      </c>
+      <c r="F127">
+        <v>50</v>
+      </c>
+      <c r="G127" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H127">
+        <v>23000</v>
+      </c>
+      <c r="I127">
+        <v>380</v>
+      </c>
+      <c r="J127">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>2019</v>
+      </c>
+      <c r="D128">
+        <v>38000</v>
+      </c>
+      <c r="E128">
+        <v>81</v>
+      </c>
+      <c r="F128">
+        <v>51</v>
+      </c>
+      <c r="G128" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="H128">
+        <v>75000</v>
+      </c>
+      <c r="I128">
+        <v>580</v>
+      </c>
+      <c r="J128">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>2021</v>
+      </c>
+      <c r="D129">
+        <v>8000</v>
+      </c>
+      <c r="E129">
+        <v>221</v>
+      </c>
+      <c r="F129">
+        <v>75</v>
+      </c>
+      <c r="G129" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="H129">
+        <v>64000</v>
+      </c>
+      <c r="I129">
+        <v>402</v>
+      </c>
+      <c r="J129">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>2016</v>
+      </c>
+      <c r="D130">
+        <v>15000</v>
+      </c>
+      <c r="E130">
+        <v>74</v>
+      </c>
+      <c r="F130">
+        <v>50</v>
+      </c>
+      <c r="G130" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="H130">
+        <v>208000</v>
+      </c>
+      <c r="I130">
+        <v>405</v>
+      </c>
+      <c r="J130">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>2019</v>
+      </c>
+      <c r="D131">
+        <v>27000</v>
+      </c>
+      <c r="E131">
+        <v>105</v>
+      </c>
+      <c r="F131">
+        <v>63</v>
+      </c>
+      <c r="G131" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H131">
+        <v>45000</v>
+      </c>
+      <c r="I131">
+        <v>287</v>
+      </c>
+      <c r="J131">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>2019</v>
+      </c>
+      <c r="D132">
+        <v>35000</v>
+      </c>
+      <c r="E132">
+        <v>96</v>
+      </c>
+      <c r="F132">
+        <v>53</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H132">
+        <v>59000</v>
+      </c>
+      <c r="I132">
+        <v>335</v>
+      </c>
+      <c r="J132">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>2019</v>
+      </c>
+      <c r="D133">
+        <v>30000</v>
+      </c>
+      <c r="E133">
+        <v>85</v>
+      </c>
+      <c r="F133">
+        <v>50</v>
+      </c>
+      <c r="G133" s="1">
+        <v>5</v>
+      </c>
+      <c r="H133">
+        <v>50000</v>
+      </c>
+      <c r="I133">
+        <v>326</v>
+      </c>
+      <c r="J133">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>2009</v>
+      </c>
+      <c r="D134">
+        <v>60000</v>
+      </c>
+      <c r="E134">
+        <v>74</v>
+      </c>
+      <c r="F134">
+        <v>45</v>
+      </c>
+      <c r="G134" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="H134">
+        <v>80000</v>
+      </c>
+      <c r="I134">
+        <v>556</v>
+      </c>
+      <c r="J134">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>2014</v>
+      </c>
+      <c r="D135">
+        <v>23000</v>
+      </c>
+      <c r="E135">
+        <v>110</v>
+      </c>
+      <c r="F135">
+        <v>55</v>
+      </c>
+      <c r="G135" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="H135">
+        <v>115000</v>
+      </c>
+      <c r="I135">
+        <v>422</v>
+      </c>
+      <c r="J135">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>2020</v>
+      </c>
+      <c r="D136">
+        <v>35000</v>
+      </c>
+      <c r="E136">
+        <v>147</v>
+      </c>
+      <c r="F136">
+        <v>57</v>
+      </c>
+      <c r="G136" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="H136">
+        <v>78000</v>
+      </c>
+      <c r="I136">
+        <v>185</v>
+      </c>
+      <c r="J136">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>2019</v>
+      </c>
+      <c r="D137">
+        <v>22000</v>
+      </c>
+      <c r="E137">
+        <v>61</v>
+      </c>
+      <c r="F137">
+        <v>45</v>
+      </c>
+      <c r="G137" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H137">
+        <v>85000</v>
+      </c>
+      <c r="I137">
+        <v>502</v>
+      </c>
+      <c r="J137">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>2022</v>
+      </c>
+      <c r="D138">
+        <v>5000</v>
+      </c>
+      <c r="E138">
+        <v>175</v>
+      </c>
+      <c r="F138">
+        <v>60</v>
+      </c>
+      <c r="G138" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="H138">
+        <v>80000</v>
+      </c>
+      <c r="I138">
+        <v>211</v>
+      </c>
+      <c r="J138">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>2021</v>
+      </c>
+      <c r="D139">
+        <v>30000</v>
+      </c>
+      <c r="E139">
+        <v>157</v>
+      </c>
+      <c r="F139">
+        <v>55</v>
+      </c>
+      <c r="G139" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H139">
+        <v>56000</v>
+      </c>
+      <c r="I139">
+        <v>506</v>
+      </c>
+      <c r="J139">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>2020</v>
+      </c>
+      <c r="D140">
+        <v>27000</v>
+      </c>
+      <c r="E140">
+        <v>88</v>
+      </c>
+      <c r="F140">
+        <v>51</v>
+      </c>
+      <c r="G140" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="H140">
+        <v>110000</v>
+      </c>
+      <c r="I140">
+        <v>309</v>
+      </c>
+      <c r="J140">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>2020</v>
+      </c>
+      <c r="D141">
+        <v>19000</v>
+      </c>
+      <c r="E141">
+        <v>85</v>
+      </c>
+      <c r="F141">
+        <v>45</v>
+      </c>
+      <c r="G141" s="1">
+        <v>6</v>
+      </c>
+      <c r="H141">
+        <v>80000</v>
+      </c>
+      <c r="I141">
+        <v>458</v>
+      </c>
+      <c r="J141">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>2021</v>
+      </c>
+      <c r="D142">
+        <v>33000</v>
+      </c>
+      <c r="E142">
+        <v>85</v>
+      </c>
+      <c r="F142">
+        <v>45</v>
+      </c>
+      <c r="G142" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H142">
+        <v>30000</v>
+      </c>
+      <c r="I142">
+        <v>445</v>
+      </c>
+      <c r="J142">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>2020</v>
+      </c>
+      <c r="D143">
+        <v>52000</v>
+      </c>
+      <c r="E143">
+        <v>280</v>
+      </c>
+      <c r="F143">
+        <v>65</v>
+      </c>
+      <c r="G143" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="H143">
+        <v>300000</v>
+      </c>
+      <c r="I143">
+        <v>150</v>
+      </c>
+      <c r="J143">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>2022</v>
+      </c>
+      <c r="D144">
+        <v>9000</v>
+      </c>
+      <c r="E144">
+        <v>115</v>
+      </c>
+      <c r="F144">
+        <v>51</v>
+      </c>
+      <c r="G144" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="H144">
+        <v>115000</v>
+      </c>
+      <c r="I144">
+        <v>125</v>
+      </c>
+      <c r="J144">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>2019</v>
+      </c>
+      <c r="D145">
+        <v>45000</v>
+      </c>
+      <c r="E145">
+        <v>90</v>
+      </c>
+      <c r="F145">
+        <v>57</v>
+      </c>
+      <c r="G145" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H145">
+        <v>120000</v>
+      </c>
+      <c r="I145">
+        <v>536</v>
+      </c>
+      <c r="J145">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>2021</v>
+      </c>
+      <c r="D146">
+        <v>40000</v>
+      </c>
+      <c r="E146">
+        <v>74</v>
+      </c>
+      <c r="F146">
+        <v>65</v>
+      </c>
+      <c r="G146" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H146">
+        <v>112000</v>
+      </c>
+      <c r="I146">
+        <v>319</v>
+      </c>
+      <c r="J146">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="147" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>2017</v>
+      </c>
+      <c r="D147">
+        <v>47000</v>
+      </c>
+      <c r="E147">
+        <v>375</v>
+      </c>
+      <c r="F147">
+        <v>88</v>
+      </c>
+      <c r="G147" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H147">
+        <v>195000</v>
+      </c>
+      <c r="I147">
+        <v>355</v>
+      </c>
+      <c r="J147">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>2023</v>
+      </c>
+      <c r="D148">
+        <v>25000</v>
+      </c>
+      <c r="E148">
+        <v>200</v>
+      </c>
+      <c r="F148">
+        <v>59</v>
+      </c>
+      <c r="G148" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="H148">
+        <v>78000</v>
+      </c>
+      <c r="I148">
+        <v>258</v>
+      </c>
+      <c r="J148">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>2016</v>
+      </c>
+      <c r="D149">
+        <v>12000</v>
+      </c>
+      <c r="E149">
+        <v>110</v>
+      </c>
+      <c r="F149">
+        <v>52</v>
+      </c>
+      <c r="G149" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H149">
+        <v>55000</v>
+      </c>
+      <c r="I149">
+        <v>820</v>
+      </c>
+      <c r="J149">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="150" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>2022</v>
+      </c>
+      <c r="D150">
+        <v>40000</v>
+      </c>
+      <c r="E150">
+        <v>96</v>
+      </c>
+      <c r="F150">
+        <v>50</v>
+      </c>
+      <c r="G150" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="H150">
+        <v>148000</v>
+      </c>
+      <c r="I150">
+        <v>708</v>
+      </c>
+      <c r="J150">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>2019</v>
+      </c>
+      <c r="D151">
+        <v>10000</v>
+      </c>
+      <c r="E151">
+        <v>66</v>
+      </c>
+      <c r="F151">
+        <v>45</v>
+      </c>
+      <c r="G151" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="H151">
+        <v>52000</v>
+      </c>
+      <c r="I151">
+        <v>613</v>
+      </c>
+      <c r="J151">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>2021</v>
+      </c>
+      <c r="D152">
+        <v>60000</v>
+      </c>
+      <c r="E152">
+        <v>235</v>
+      </c>
+      <c r="F152">
+        <v>65</v>
+      </c>
+      <c r="G152" s="1">
+        <v>7</v>
+      </c>
+      <c r="H152">
+        <v>93000</v>
+      </c>
+      <c r="I152">
+        <v>421</v>
+      </c>
+      <c r="J152">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>2018</v>
+      </c>
+      <c r="D153">
+        <v>25000</v>
+      </c>
+      <c r="E153">
+        <v>103</v>
+      </c>
+      <c r="F153">
+        <v>50</v>
+      </c>
+      <c r="G153" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H153">
+        <v>250000</v>
+      </c>
+      <c r="I153">
+        <v>452</v>
+      </c>
+      <c r="J153">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>2007</v>
+      </c>
+      <c r="D154">
+        <v>44000</v>
+      </c>
+      <c r="E154">
+        <v>110</v>
+      </c>
+      <c r="F154">
+        <v>50</v>
+      </c>
+      <c r="G154" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H154">
+        <v>275000</v>
+      </c>
+      <c r="I154">
+        <v>390</v>
+      </c>
+      <c r="J154">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>2019</v>
+      </c>
+      <c r="D155">
+        <v>25000</v>
+      </c>
+      <c r="E155">
+        <v>294</v>
+      </c>
+      <c r="F155">
+        <v>60</v>
+      </c>
+      <c r="G155" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="H155">
+        <v>55000</v>
+      </c>
+      <c r="I155">
+        <v>273</v>
+      </c>
+      <c r="J155">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>2017</v>
+      </c>
+      <c r="D156">
+        <v>25000</v>
+      </c>
+      <c r="E156">
+        <v>150</v>
+      </c>
+      <c r="F156">
+        <v>55</v>
+      </c>
+      <c r="G156" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H156">
+        <v>67000</v>
+      </c>
+      <c r="I156">
+        <v>509</v>
+      </c>
+      <c r="J156">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>2019</v>
+      </c>
+      <c r="D157">
+        <v>33000</v>
+      </c>
+      <c r="E157">
+        <v>110</v>
+      </c>
+      <c r="F157">
+        <v>50</v>
+      </c>
+      <c r="G157" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="H157">
+        <v>115000</v>
+      </c>
+      <c r="I157">
+        <v>438</v>
+      </c>
+      <c r="J157">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>2023</v>
+      </c>
+      <c r="D158">
+        <v>10000</v>
+      </c>
+      <c r="E158">
+        <v>85</v>
+      </c>
+      <c r="F158">
+        <v>45</v>
+      </c>
+      <c r="G158" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H158">
+        <v>130000</v>
+      </c>
+      <c r="I158">
+        <v>361</v>
+      </c>
+      <c r="J158">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>2017</v>
+      </c>
+      <c r="D159">
+        <v>10000</v>
+      </c>
+      <c r="E159">
+        <v>455</v>
+      </c>
+      <c r="F159">
+        <v>75</v>
+      </c>
+      <c r="G159">
+        <v>0.9</v>
+      </c>
+      <c r="H159">
+        <v>80000</v>
+      </c>
+      <c r="I159">
+        <v>513</v>
+      </c>
+      <c r="J159">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>2023</v>
+      </c>
+      <c r="D160">
+        <v>50000</v>
+      </c>
+      <c r="E160">
+        <v>70</v>
+      </c>
+      <c r="F160">
+        <v>47</v>
+      </c>
+      <c r="G160" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="H160">
+        <v>905000</v>
+      </c>
+      <c r="I160">
+        <v>835</v>
+      </c>
+      <c r="J160">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>2019</v>
+      </c>
+      <c r="D161">
+        <v>4000</v>
+      </c>
+      <c r="E161">
+        <v>110</v>
+      </c>
+      <c r="F161">
+        <v>55</v>
+      </c>
+      <c r="G161" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="H161">
+        <v>85000</v>
+      </c>
+      <c r="I161">
+        <v>250</v>
+      </c>
+      <c r="J161">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>2021</v>
+      </c>
+      <c r="D162">
+        <v>50000</v>
+      </c>
+      <c r="E162">
+        <v>67</v>
+      </c>
+      <c r="F162">
+        <v>54</v>
+      </c>
+      <c r="G162" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="H162">
+        <v>87000</v>
+      </c>
+      <c r="I162">
+        <v>325</v>
+      </c>
+      <c r="J162">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>2021</v>
+      </c>
+      <c r="D163">
+        <v>16000</v>
+      </c>
+      <c r="E163">
+        <v>382</v>
+      </c>
+      <c r="F163">
+        <v>60</v>
+      </c>
+      <c r="G163" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="H163">
+        <v>115000</v>
+      </c>
+      <c r="I163">
+        <v>360</v>
+      </c>
+      <c r="J163">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>2011</v>
+      </c>
+      <c r="D164">
+        <v>25000</v>
+      </c>
+      <c r="E164">
+        <v>60</v>
+      </c>
+      <c r="F164">
+        <v>35</v>
+      </c>
+      <c r="G164" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H164">
+        <v>175000</v>
+      </c>
+      <c r="I164">
+        <v>380</v>
+      </c>
+      <c r="J164">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>2017</v>
+      </c>
+      <c r="D165">
+        <v>15000</v>
+      </c>
+      <c r="E165">
+        <v>423</v>
+      </c>
+      <c r="F165">
+        <v>80</v>
+      </c>
+      <c r="G165" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H165">
+        <v>80000</v>
+      </c>
+      <c r="I165">
+        <v>413</v>
+      </c>
+      <c r="J165">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>2023</v>
+      </c>
+      <c r="D166">
+        <v>23000</v>
+      </c>
+      <c r="E166">
+        <v>162</v>
+      </c>
+      <c r="F166">
+        <v>60</v>
+      </c>
+      <c r="G166" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H166">
+        <v>127000</v>
+      </c>
+      <c r="I166">
+        <v>466</v>
+      </c>
+      <c r="J166">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>2020</v>
+      </c>
+      <c r="D167">
+        <v>4000</v>
+      </c>
+      <c r="E167">
+        <v>118</v>
+      </c>
+      <c r="F167">
+        <v>56</v>
+      </c>
+      <c r="G167" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H167">
+        <v>140000</v>
+      </c>
+      <c r="I167">
+        <v>503</v>
+      </c>
+      <c r="J167">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>2022</v>
+      </c>
+      <c r="D168">
+        <v>8000</v>
+      </c>
+      <c r="E168">
+        <v>70</v>
+      </c>
+      <c r="F168">
+        <v>50</v>
+      </c>
+      <c r="G168" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="H168">
+        <v>700000</v>
+      </c>
+      <c r="I168">
+        <v>125</v>
+      </c>
+      <c r="J168">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>2021</v>
+      </c>
+      <c r="D169">
+        <v>2000</v>
+      </c>
+      <c r="E169">
+        <v>96</v>
+      </c>
+      <c r="F169">
+        <v>50</v>
+      </c>
+      <c r="G169" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="H169">
+        <v>106000</v>
+      </c>
+      <c r="I169">
+        <v>525</v>
+      </c>
+      <c r="J169">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>2020</v>
+      </c>
+      <c r="D170">
+        <v>20000</v>
+      </c>
+      <c r="E170">
+        <v>184</v>
+      </c>
+      <c r="F170">
+        <v>60</v>
+      </c>
+      <c r="G170" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H170">
+        <v>99000</v>
+      </c>
+      <c r="I170">
+        <v>500</v>
+      </c>
+      <c r="J170">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>2018</v>
+      </c>
+      <c r="D171">
+        <v>4000</v>
+      </c>
+      <c r="E171">
+        <v>255</v>
+      </c>
+      <c r="F171">
+        <v>55</v>
+      </c>
+      <c r="G171" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="H171">
+        <v>480000</v>
+      </c>
+      <c r="I171">
+        <v>505</v>
+      </c>
+      <c r="J171">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>2018</v>
+      </c>
+      <c r="D172">
+        <v>5000</v>
+      </c>
+      <c r="E172">
+        <v>74</v>
+      </c>
+      <c r="F172">
+        <v>47</v>
+      </c>
+      <c r="G172" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="H172">
+        <v>99000</v>
+      </c>
+      <c r="I172">
+        <v>305</v>
+      </c>
+      <c r="J172">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="173" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>2020</v>
+      </c>
+      <c r="D173">
+        <v>39000</v>
+      </c>
+      <c r="E173">
+        <v>467</v>
+      </c>
+      <c r="F173">
+        <v>85</v>
+      </c>
+      <c r="G173" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="H173">
+        <v>250000</v>
+      </c>
+      <c r="I173">
+        <v>380</v>
+      </c>
+      <c r="J173">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>2016</v>
+      </c>
+      <c r="D174">
+        <v>15000</v>
+      </c>
+      <c r="E174">
+        <v>114</v>
+      </c>
+      <c r="F174">
+        <v>62</v>
+      </c>
+      <c r="G174" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="H174">
+        <v>675000</v>
+      </c>
+      <c r="I174">
+        <v>591</v>
+      </c>
+      <c r="J174">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>2020</v>
+      </c>
+      <c r="D175">
+        <v>27000</v>
+      </c>
+      <c r="E175">
+        <v>419</v>
+      </c>
+      <c r="F175">
+        <v>88</v>
+      </c>
+      <c r="G175" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H175">
+        <v>285000</v>
+      </c>
+      <c r="I175">
+        <v>391</v>
+      </c>
+      <c r="J175">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="176" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>2022</v>
+      </c>
+      <c r="D176">
+        <v>20000</v>
+      </c>
+      <c r="E176">
+        <v>81</v>
+      </c>
+      <c r="F176">
+        <v>45</v>
+      </c>
+      <c r="G176" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H176">
+        <v>65000</v>
+      </c>
+      <c r="I176">
+        <v>430</v>
+      </c>
+      <c r="J176">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="177" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>2023</v>
+      </c>
+      <c r="D177">
+        <v>14000</v>
+      </c>
+      <c r="E177">
+        <v>246</v>
+      </c>
+      <c r="F177">
+        <v>64</v>
+      </c>
+      <c r="G177" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H177">
+        <v>120000</v>
+      </c>
+      <c r="I177">
+        <v>100</v>
+      </c>
+      <c r="J177">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="178" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>2021</v>
+      </c>
+      <c r="D178">
+        <v>29000</v>
+      </c>
+      <c r="E178">
+        <v>102</v>
+      </c>
+      <c r="F178">
+        <v>50</v>
+      </c>
+      <c r="G178" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="H178">
+        <v>50000</v>
+      </c>
+      <c r="I178">
+        <v>474</v>
+      </c>
+      <c r="J178">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="179" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>2021</v>
+      </c>
+      <c r="D179">
+        <v>31000</v>
+      </c>
+      <c r="E179">
+        <v>90</v>
+      </c>
+      <c r="F179">
+        <v>47</v>
+      </c>
+      <c r="G179" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H179">
+        <v>120000</v>
+      </c>
+      <c r="I179">
+        <v>533</v>
+      </c>
+      <c r="J179">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>2014</v>
+      </c>
+      <c r="D180">
+        <v>42000</v>
+      </c>
+      <c r="E180">
+        <v>118</v>
+      </c>
+      <c r="F180">
+        <v>55</v>
+      </c>
+      <c r="G180" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H180">
+        <v>170000</v>
+      </c>
+      <c r="I180">
+        <v>640</v>
+      </c>
+      <c r="J180">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>2020</v>
+      </c>
+      <c r="D181">
+        <v>40000</v>
+      </c>
+      <c r="E181">
+        <v>294</v>
+      </c>
+      <c r="F181">
+        <v>60</v>
+      </c>
+      <c r="G181" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H181">
+        <v>84000</v>
+      </c>
+      <c r="I181">
+        <v>340</v>
+      </c>
+      <c r="J181">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="182" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>2017</v>
+      </c>
+      <c r="D182">
+        <v>45000</v>
+      </c>
+      <c r="E182">
+        <v>195</v>
+      </c>
+      <c r="F182">
+        <v>54</v>
+      </c>
+      <c r="G182" s="1">
+        <v>8</v>
+      </c>
+      <c r="H182">
+        <v>65000</v>
+      </c>
+      <c r="I182">
+        <v>371</v>
+      </c>
+      <c r="J182">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>2021</v>
+      </c>
+      <c r="D183">
+        <v>55000</v>
+      </c>
+      <c r="E183">
+        <v>95</v>
+      </c>
+      <c r="F183">
+        <v>550</v>
+      </c>
+      <c r="G183" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="H183">
+        <v>58000</v>
+      </c>
+      <c r="I183">
+        <v>1030</v>
+      </c>
+      <c r="J183">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>2019</v>
+      </c>
+      <c r="D184">
+        <v>14000</v>
+      </c>
+      <c r="E184">
+        <v>160</v>
+      </c>
+      <c r="F184">
+        <v>80</v>
+      </c>
+      <c r="G184" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H184">
+        <v>60000</v>
+      </c>
+      <c r="I184">
+        <v>300</v>
+      </c>
+      <c r="J184">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="185" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>2023</v>
+      </c>
+      <c r="D185">
+        <v>48000</v>
+      </c>
+      <c r="E185">
+        <v>246</v>
+      </c>
+      <c r="F185">
+        <v>77</v>
+      </c>
+      <c r="G185" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H185">
+        <v>136000</v>
+      </c>
+      <c r="I185">
+        <v>405</v>
+      </c>
+      <c r="J185">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>2023</v>
+      </c>
+      <c r="D186">
+        <v>45000</v>
+      </c>
+      <c r="E186">
+        <v>120</v>
+      </c>
+      <c r="F186">
+        <v>64</v>
+      </c>
+      <c r="G186" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="H186">
+        <v>72000</v>
+      </c>
+      <c r="I186">
+        <v>1100</v>
+      </c>
+      <c r="J186">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="187" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>2020</v>
+      </c>
+      <c r="D187">
+        <v>44000</v>
+      </c>
+      <c r="E187">
+        <v>90</v>
+      </c>
+      <c r="F187">
+        <v>50</v>
+      </c>
+      <c r="G187" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H187">
+        <v>63000</v>
+      </c>
+      <c r="I187">
+        <v>265</v>
+      </c>
+      <c r="J187">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="188" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>2022</v>
+      </c>
+      <c r="D188">
+        <v>40000</v>
+      </c>
+      <c r="E188">
+        <v>74</v>
+      </c>
+      <c r="F188">
+        <v>51</v>
+      </c>
+      <c r="G188" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="H188">
+        <v>125000</v>
+      </c>
+      <c r="I188">
+        <v>255</v>
+      </c>
+      <c r="J188">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>2021</v>
+      </c>
+      <c r="D189">
+        <v>10000</v>
+      </c>
+      <c r="E189">
+        <v>96</v>
+      </c>
+      <c r="F189">
+        <v>53</v>
+      </c>
+      <c r="G189" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="H189">
+        <v>200000</v>
+      </c>
+      <c r="I189">
+        <v>411</v>
+      </c>
+      <c r="J189">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>2007</v>
+      </c>
+      <c r="D190">
+        <v>19000</v>
+      </c>
+      <c r="E190">
+        <v>59</v>
+      </c>
+      <c r="F190">
+        <v>35</v>
+      </c>
+      <c r="G190" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="H190">
+        <v>359000</v>
+      </c>
+      <c r="I190">
+        <v>450</v>
+      </c>
+      <c r="J190">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="191" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>2019</v>
+      </c>
+      <c r="D191">
+        <v>18000</v>
+      </c>
+      <c r="E191">
+        <v>81</v>
+      </c>
+      <c r="F191">
+        <v>45</v>
+      </c>
+      <c r="G191" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H191">
+        <v>70000</v>
+      </c>
+      <c r="I191">
+        <v>205</v>
+      </c>
+      <c r="J191">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>2016</v>
+      </c>
+      <c r="D192">
+        <v>12000</v>
+      </c>
+      <c r="E192">
+        <v>224</v>
+      </c>
+      <c r="F192">
+        <v>65</v>
+      </c>
+      <c r="G192" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="H192">
+        <v>140000</v>
+      </c>
+      <c r="I192">
+        <v>300</v>
+      </c>
+      <c r="J192">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>2023</v>
+      </c>
+      <c r="D193">
+        <v>28000</v>
+      </c>
+      <c r="E193">
+        <v>103</v>
+      </c>
+      <c r="F193">
+        <v>51</v>
+      </c>
+      <c r="G193" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H193">
+        <v>40000</v>
+      </c>
+      <c r="I193">
+        <v>225</v>
+      </c>
+      <c r="J193">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="194" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>2017</v>
+      </c>
+      <c r="D194">
+        <v>10000</v>
+      </c>
+      <c r="E194">
+        <v>147</v>
+      </c>
+      <c r="F194">
+        <v>54</v>
+      </c>
+      <c r="G194" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H194">
+        <v>215000</v>
+      </c>
+      <c r="I194">
+        <v>500</v>
+      </c>
+      <c r="J194">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>2023</v>
+      </c>
+      <c r="D195">
+        <v>5000</v>
+      </c>
+      <c r="E195">
+        <v>91</v>
+      </c>
+      <c r="F195">
+        <v>50</v>
+      </c>
+      <c r="G195" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="H195">
+        <v>159000</v>
+      </c>
+      <c r="I195">
+        <v>510</v>
+      </c>
+      <c r="J195">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="196" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C196">
+        <v>2022</v>
+      </c>
+      <c r="D196">
+        <v>47000</v>
+      </c>
+      <c r="E196">
+        <v>63</v>
+      </c>
+      <c r="F196">
+        <v>45</v>
+      </c>
+      <c r="G196" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H196">
+        <v>70000</v>
+      </c>
+      <c r="I196">
+        <v>297</v>
+      </c>
+      <c r="J196">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>2010</v>
+      </c>
+      <c r="D197">
+        <v>33000</v>
+      </c>
+      <c r="E197">
+        <v>343</v>
+      </c>
+      <c r="F197">
+        <v>88</v>
+      </c>
+      <c r="G197" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H197">
+        <v>39000</v>
+      </c>
+      <c r="I197">
+        <v>180</v>
+      </c>
+      <c r="J197">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C198">
+        <v>2020</v>
+      </c>
+      <c r="D198">
+        <v>13000</v>
+      </c>
+      <c r="E198">
+        <v>100</v>
+      </c>
+      <c r="F198">
+        <v>53</v>
+      </c>
+      <c r="G198" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="H198">
+        <v>125000</v>
+      </c>
+      <c r="I198">
+        <v>85</v>
+      </c>
+      <c r="J198">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>2011</v>
+      </c>
+      <c r="D199">
+        <v>33000</v>
+      </c>
+      <c r="E199">
+        <v>94</v>
+      </c>
+      <c r="F199">
+        <v>50</v>
+      </c>
+      <c r="G199" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H199">
+        <v>13000</v>
+      </c>
+      <c r="I199">
+        <v>90</v>
+      </c>
+      <c r="J199">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="200" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C200">
+        <v>2015</v>
+      </c>
+      <c r="D200">
+        <v>22000</v>
+      </c>
+      <c r="E200">
+        <v>104</v>
+      </c>
+      <c r="F200">
+        <v>50</v>
+      </c>
+      <c r="G200" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H200">
+        <v>200000</v>
+      </c>
+      <c r="I200">
+        <v>480</v>
+      </c>
+      <c r="J200">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>